--- a/input_data/Biogeographic_data/Taxa_bioregions_binary_table_for_analyses.xlsx
+++ b/input_data/Biogeographic_data/Taxa_bioregions_binary_table_for_analyses.xlsx
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -5876,13 +5876,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -6348,10 +6348,10 @@
         <v>49</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -6360,22 +6360,22 @@
         <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7136,13 +7136,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -7238,16 +7238,16 @@
         <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -7556,13 +7556,13 @@
         <v>0</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
       </c>
       <c r="J74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -8492,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="D124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="b">
         <v>1</v>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="b">
         <v>0</v>
@@ -11266,13 +11266,13 @@
         <v>0</v>
       </c>
       <c r="H180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="b">
         <v>0</v>
       </c>
       <c r="J180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180" t="b">
         <v>0</v>
@@ -11371,13 +11371,13 @@
         <v>0</v>
       </c>
       <c r="H183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="b">
         <v>0</v>
       </c>
       <c r="J183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183" t="b">
         <v>0</v>
@@ -11826,13 +11826,13 @@
         <v>0</v>
       </c>
       <c r="H196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="b">
         <v>0</v>
       </c>
       <c r="J196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K196" t="b">
         <v>0</v>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="D199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
@@ -12403,7 +12403,7 @@
         <v>222</v>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="K213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="b">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="D233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233" t="b">
         <v>1</v>
@@ -13217,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236" t="b">
         <v>0</v>
@@ -13567,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246" t="b">
         <v>0</v>
@@ -15641,13 +15641,13 @@
         <v>0</v>
       </c>
       <c r="H305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="b">
         <v>0</v>
       </c>
       <c r="J305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K305" t="b">
         <v>0</v>
@@ -15702,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F307" t="b">
         <v>0</v>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="D338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E338" t="b">
         <v>0</v>
@@ -17522,7 +17522,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F359" t="b">
         <v>0</v>
@@ -17618,7 +17618,7 @@
         <v>371</v>
       </c>
       <c r="B362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="b">
         <v>0</v>
@@ -17645,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="K362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -18476,13 +18476,13 @@
         <v>0</v>
       </c>
       <c r="H386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="b">
         <v>0</v>
       </c>
       <c r="J386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K386" t="b">
         <v>0</v>
@@ -18896,13 +18896,13 @@
         <v>0</v>
       </c>
       <c r="H398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="b">
         <v>0</v>
       </c>
       <c r="J398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K398" t="b">
         <v>0</v>
@@ -19024,7 +19024,7 @@
         <v>0</v>
       </c>
       <c r="D402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E402" t="b">
         <v>1</v>
@@ -20809,16 +20809,16 @@
         <v>0</v>
       </c>
       <c r="D453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E453" t="b">
         <v>0</v>
       </c>
       <c r="F453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H453" t="b">
         <v>0</v>
@@ -20827,7 +20827,7 @@
         <v>0</v>
       </c>
       <c r="J453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K453" t="b">
         <v>0</v>
@@ -23227,7 +23227,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F522" t="b">
         <v>0</v>
@@ -23274,7 +23274,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J523" t="b">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>1</v>
       </c>
       <c r="G529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H529" t="b">
         <v>0</v>
@@ -23487,7 +23487,7 @@
         <v>0</v>
       </c>
       <c r="J529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K529" t="b">
         <v>0</v>
@@ -23513,16 +23513,16 @@
         <v>1</v>
       </c>
       <c r="G530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H530" t="b">
         <v>0</v>
       </c>
       <c r="I530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K530" t="b">
         <v>0</v>
@@ -24656,7 +24656,7 @@
         <v>1</v>
       </c>
       <c r="C563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D563" t="b">
         <v>0</v>
@@ -24668,7 +24668,7 @@
         <v>0</v>
       </c>
       <c r="G563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H563" t="b">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         <v>0</v>
       </c>
       <c r="J563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K563" t="b">
         <v>1</v>
@@ -25009,7 +25009,7 @@
         <v>0</v>
       </c>
       <c r="D573" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E573" t="b">
         <v>1</v>
@@ -25082,7 +25082,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F575" t="b">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J634" t="b">
         <v>0</v>
@@ -27226,13 +27226,13 @@
         <v>0</v>
       </c>
       <c r="H636" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="b">
         <v>0</v>
       </c>
       <c r="J636" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K636" t="b">
         <v>0</v>
@@ -29714,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J707" t="b">
         <v>0</v>
@@ -30376,13 +30376,13 @@
         <v>0</v>
       </c>
       <c r="H726" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="b">
         <v>0</v>
       </c>
       <c r="J726" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K726" t="b">
         <v>0</v>
@@ -31426,13 +31426,13 @@
         <v>0</v>
       </c>
       <c r="H756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="b">
         <v>0</v>
       </c>
       <c r="J756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K756" t="b">
         <v>0</v>
@@ -32044,7 +32044,7 @@
         <v>0</v>
       </c>
       <c r="D774" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E774" t="b">
         <v>0</v>
@@ -33211,13 +33211,13 @@
         <v>0</v>
       </c>
       <c r="H807" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="b">
         <v>0</v>
       </c>
       <c r="J807" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K807" t="b">
         <v>0</v>
@@ -34086,13 +34086,13 @@
         <v>0</v>
       </c>
       <c r="H832" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="b">
         <v>0</v>
       </c>
       <c r="J832" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K832" t="b">
         <v>0</v>
@@ -35699,7 +35699,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J878" t="b">
         <v>0</v>
@@ -36635,7 +36635,7 @@
         <v>0</v>
       </c>
       <c r="F905" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G905" t="b">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="F906" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G906" t="b">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J926" t="b">
         <v>0</v>
@@ -37889,7 +37889,7 @@
         <v>0</v>
       </c>
       <c r="D941" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E941" t="b">
         <v>0</v>
@@ -41389,7 +41389,7 @@
         <v>0</v>
       </c>
       <c r="D1041" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1041" t="b">
         <v>1</v>
@@ -41631,7 +41631,7 @@
         <v>0</v>
       </c>
       <c r="C1048" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1048" t="b">
         <v>1</v>
@@ -41655,7 +41655,7 @@
         <v>0</v>
       </c>
       <c r="K1048" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049">
@@ -41917,7 +41917,7 @@
         <v>1</v>
       </c>
       <c r="E1056" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1056" t="b">
         <v>0</v>
@@ -42509,7 +42509,7 @@
         <v>0</v>
       </c>
       <c r="D1073" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1073" t="b">
         <v>1</v>
@@ -44344,7 +44344,7 @@
         <v>0</v>
       </c>
       <c r="I1125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1125" t="b">
         <v>0</v>
@@ -44834,7 +44834,7 @@
         <v>0</v>
       </c>
       <c r="I1139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1139" t="b">
         <v>0</v>
@@ -45674,7 +45674,7 @@
         <v>0</v>
       </c>
       <c r="I1163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1163" t="b">
         <v>0</v>
@@ -46409,7 +46409,7 @@
         <v>0</v>
       </c>
       <c r="I1184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1184" t="b">
         <v>0</v>
@@ -46849,7 +46849,7 @@
         <v>0</v>
       </c>
       <c r="D1197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1197" t="b">
         <v>0</v>
@@ -46928,7 +46928,7 @@
         <v>1</v>
       </c>
       <c r="G1199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1199" t="b">
         <v>0</v>
@@ -46937,7 +46937,7 @@
         <v>0</v>
       </c>
       <c r="J1199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1199" t="b">
         <v>0</v>
@@ -47173,7 +47173,7 @@
         <v>0</v>
       </c>
       <c r="G1206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1206" t="b">
         <v>0</v>
@@ -47182,7 +47182,7 @@
         <v>0</v>
       </c>
       <c r="J1206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1206" t="b">
         <v>0</v>
@@ -47214,7 +47214,7 @@
         <v>0</v>
       </c>
       <c r="I1207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1207" t="b">
         <v>0</v>
@@ -47415,7 +47415,7 @@
         <v>0</v>
       </c>
       <c r="F1213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1213" t="b">
         <v>0</v>
@@ -47613,13 +47613,13 @@
         <v>1228</v>
       </c>
       <c r="B1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1219" t="b">
         <v>0</v>
       </c>
       <c r="D1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1219" t="b">
         <v>0</v>
@@ -47634,13 +47634,13 @@
         <v>0</v>
       </c>
       <c r="I1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1219" t="b">
         <v>0</v>
       </c>
       <c r="K1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220">
@@ -47727,7 +47727,7 @@
         <v>1</v>
       </c>
       <c r="E1222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1222" t="b">
         <v>0</v>
@@ -47774,7 +47774,7 @@
         <v>0</v>
       </c>
       <c r="I1223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1223" t="b">
         <v>0</v>
@@ -48089,7 +48089,7 @@
         <v>0</v>
       </c>
       <c r="I1232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1232" t="b">
         <v>0</v>
@@ -48182,7 +48182,7 @@
         <v>1</v>
       </c>
       <c r="E1235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1235" t="b">
         <v>0</v>
@@ -48299,7 +48299,7 @@
         <v>0</v>
       </c>
       <c r="I1238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1238" t="b">
         <v>0</v>
@@ -48319,7 +48319,7 @@
         <v>0</v>
       </c>
       <c r="D1239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1239" t="b">
         <v>1</v>
@@ -48424,7 +48424,7 @@
         <v>0</v>
       </c>
       <c r="D1242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1242" t="b">
         <v>1</v>
@@ -48646,13 +48646,13 @@
         <v>0</v>
       </c>
       <c r="H1248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1248" t="b">
         <v>0</v>
       </c>
       <c r="J1248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1248" t="b">
         <v>0</v>
@@ -48742,13 +48742,13 @@
         <v>0</v>
       </c>
       <c r="E1251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1251" t="b">
         <v>1</v>
       </c>
       <c r="G1251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1251" t="b">
         <v>0</v>
@@ -48757,7 +48757,7 @@
         <v>0</v>
       </c>
       <c r="J1251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1251" t="b">
         <v>0</v>
@@ -48774,7 +48774,7 @@
         <v>0</v>
       </c>
       <c r="D1252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1252" t="b">
         <v>1</v>
@@ -48946,7 +48946,7 @@
         <v>0</v>
       </c>
       <c r="C1257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1257" t="b">
         <v>1</v>
@@ -48970,7 +48970,7 @@
         <v>0</v>
       </c>
       <c r="K1257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258">
@@ -49133,7 +49133,7 @@
         <v>0</v>
       </c>
       <c r="G1262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1262" t="b">
         <v>0</v>
@@ -49142,7 +49142,7 @@
         <v>0</v>
       </c>
       <c r="J1262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1262" t="b">
         <v>1</v>
@@ -49194,7 +49194,7 @@
         <v>0</v>
       </c>
       <c r="D1264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1264" t="b">
         <v>1</v>
@@ -49279,7 +49279,7 @@
         <v>0</v>
       </c>
       <c r="I1266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1266" t="b">
         <v>0</v>
@@ -49964,7 +49964,7 @@
         <v>0</v>
       </c>
       <c r="D1286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1286" t="b">
         <v>1</v>
@@ -50238,10 +50238,10 @@
         <v>1303</v>
       </c>
       <c r="B1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1294" t="b">
         <v>1</v>
@@ -50253,7 +50253,7 @@
         <v>0</v>
       </c>
       <c r="G1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1294" t="b">
         <v>0</v>
@@ -50262,10 +50262,10 @@
         <v>0</v>
       </c>
       <c r="J1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -51758,7 +51758,7 @@
         <v>1</v>
       </c>
       <c r="G1337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1337" t="b">
         <v>0</v>
@@ -51767,7 +51767,7 @@
         <v>1</v>
       </c>
       <c r="J1337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1337" t="b">
         <v>0</v>
@@ -51831,13 +51831,13 @@
         <v>0</v>
       </c>
       <c r="H1339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1339" t="b">
         <v>0</v>
       </c>
       <c r="J1339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1339" t="b">
         <v>0</v>
@@ -53094,7 +53094,7 @@
         <v>1</v>
       </c>
       <c r="I1375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1375" t="b">
         <v>1</v>
@@ -53820,7 +53820,7 @@
         <v>0</v>
       </c>
       <c r="F1396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1396" t="b">
         <v>0</v>
@@ -53881,7 +53881,7 @@
         <v>0</v>
       </c>
       <c r="C1398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1398" t="b">
         <v>0</v>
@@ -53905,7 +53905,7 @@
         <v>0</v>
       </c>
       <c r="K1398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399">
@@ -54167,7 +54167,7 @@
         <v>1</v>
       </c>
       <c r="E1406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1406" t="b">
         <v>0</v>
@@ -54354,7 +54354,7 @@
         <v>0</v>
       </c>
       <c r="I1411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1411" t="b">
         <v>0</v>
@@ -54479,7 +54479,7 @@
         <v>0</v>
       </c>
       <c r="D1415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1415" t="b">
         <v>1</v>
@@ -54809,7 +54809,7 @@
         <v>0</v>
       </c>
       <c r="I1424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1424" t="b">
         <v>1</v>
@@ -54969,7 +54969,7 @@
         <v>0</v>
       </c>
       <c r="D1429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1429" t="b">
         <v>1</v>
@@ -55392,7 +55392,7 @@
         <v>1</v>
       </c>
       <c r="E1441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1441" t="b">
         <v>0</v>
@@ -55401,13 +55401,13 @@
         <v>0</v>
       </c>
       <c r="H1441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1441" t="b">
         <v>0</v>
       </c>
       <c r="J1441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1441" t="b">
         <v>0</v>
